--- a/files/Расписание 1 курс.xlsx
+++ b/files/Расписание 1 курс.xlsx
@@ -132,21 +132,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -452,131 +461,148 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" style="1" customWidth="1"/>
-    <col min="3" max="8" width="18.7109375" customWidth="1"/>
+    <col min="3" max="8" width="18.7109375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="2"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="2"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="2"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="2"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="2"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="5" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="7"/>
     </row>
   </sheetData>
+  <sheetProtection password="A76F" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="D10:G11"/>
   </mergeCells>
